--- a/documents/test/8_Testing_Admin_NW.xlsx
+++ b/documents/test/8_Testing_Admin_NW.xlsx
@@ -656,207 +656,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="106">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1949,7 +1749,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1619"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1709"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2003,7 +1803,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1620"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1710"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2057,7 +1857,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1621"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1711"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2111,7 +1911,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1622"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1712"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2165,7 +1965,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1623"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1713"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2219,7 +2019,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1624"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1714"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2273,7 +2073,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1625"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1715"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2327,7 +2127,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1626"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1716"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2381,7 +2181,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1627"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1717"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2435,7 +2235,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1628"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1718"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2489,7 +2289,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1629"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1719"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2543,7 +2343,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1630"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1720"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2597,7 +2397,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1631"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1721"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2651,7 +2451,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1632"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1722"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2705,7 +2505,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1633"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1723"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2759,7 +2559,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1634"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1724"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2813,7 +2613,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1635"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1725"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2867,7 +2667,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1636"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1726"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2921,7 +2721,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1637"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1727"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2975,7 +2775,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1638"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1728"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3029,7 +2829,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1639"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1729"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3083,7 +2883,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1640"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1730"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3137,7 +2937,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1641"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1731"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3191,7 +2991,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1642"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1732"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3245,7 +3045,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1643"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1733"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3299,7 +3099,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1644"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1734"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3353,7 +3153,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1645"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1735"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3407,7 +3207,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1646"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1736"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3461,7 +3261,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1647"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1737"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3515,7 +3315,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1648"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1738"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3845,7 +3645,7 @@
   <dimension ref="B1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5602,426 +5402,426 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G6:G15">
-    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="109" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="110" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="105" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="106" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="103" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="104" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="101" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="99" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="100" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="97" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="98" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="95" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="96" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="94" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="91" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="92" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="89" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="90" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="87" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="88" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="86" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="81" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="82" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="79" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="77" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="75" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="73" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="71" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="67" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="51" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G66">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/test/8_Testing_Admin_NW.xlsx
+++ b/documents/test/8_Testing_Admin_NW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7704"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="142">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -46,9 +46,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Nein</t>
-  </si>
-  <si>
     <t>Anmelden</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t>Ist das richtig? Sollte es dann nicht zurück zum Dashboard</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Neuer Name wird angezeigt</t>
@@ -580,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -597,50 +591,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -652,11 +609,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="108">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1749,7 +1747,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1709"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1769"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1803,7 +1801,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1710"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1770"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1857,7 +1855,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1711"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1771"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1911,7 +1909,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1712"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1772"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1965,7 +1963,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1713"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1773"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2019,7 +2017,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1714"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1774"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2073,7 +2071,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1715"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1775"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2127,7 +2125,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1716"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1776"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2181,7 +2179,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1717"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1777"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2235,7 +2233,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1718"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1778"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2289,7 +2287,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1719"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1779"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2343,7 +2341,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1720"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1780"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2397,7 +2395,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1721"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1781"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2451,7 +2449,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1722"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1782"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2505,7 +2503,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1723"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1783"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2559,7 +2557,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1724"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1784"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2613,7 +2611,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1725"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1785"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2667,7 +2665,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1726"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1786"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2721,7 +2719,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1727"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1787"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2775,7 +2773,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1728"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1788"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2829,7 +2827,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1729"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1789"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2883,7 +2881,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1730"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1790"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2937,7 +2935,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1731"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1791"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2991,7 +2989,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1732"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1792"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3045,7 +3043,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1733"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1793"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3099,7 +3097,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1734"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1794"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3153,7 +3151,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1735"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1795"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3207,7 +3205,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1736"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1796"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3261,7 +3259,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1737"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1797"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3315,7 +3313,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1738"/>
+                  <a14:cameraTool cellRange="$G$27" spid="_x0000_s1798"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3644,45 +3642,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="B15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="23.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3706,1458 +3704,1458 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="C8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="17">
         <v>42612</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="17">
         <v>42612</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="19">
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="17">
         <v>42612</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="C11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="17">
         <v>42612</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="19">
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="17">
         <v>42612</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="6">
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="17">
         <v>42612</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="18" t="s">
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="17">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="19">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="6">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="19">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="6">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="6">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="F52" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="23">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="19">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="19">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="19">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="6">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="6">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="6">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="6">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="6">
-        <v>42612</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="E68" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="18" t="s">
+      <c r="C69" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="20">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+      <c r="C71" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="18">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="C72" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+      <c r="D72" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="20">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="20">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="22">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="20">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="20">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="20">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="20">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="12">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="12">
+      <c r="F72" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="18">
         <v>42614</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="12">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" s="12">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="12">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="12">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="20">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68" s="12">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="12">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H70" s="22">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="12">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H72" s="22">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -5166,7 +5164,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -5175,7 +5173,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -5184,7 +5182,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -5193,7 +5191,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -5202,7 +5200,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -5211,7 +5209,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -5220,7 +5218,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -5229,7 +5227,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -5238,7 +5236,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -5247,7 +5245,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -5256,7 +5254,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -5265,7 +5263,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -5274,7 +5272,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -5283,7 +5281,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -5292,7 +5290,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -5301,7 +5299,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -5310,7 +5308,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -5319,7 +5317,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5328,7 +5326,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -5337,7 +5335,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -5346,7 +5344,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -5355,7 +5353,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -5364,7 +5362,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -5373,7 +5371,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -5382,7 +5380,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -5391,437 +5389,21 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+    <row r="101" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G6:G15">
-    <cfRule type="cellIs" dxfId="105" priority="109" operator="equal">
+  <conditionalFormatting sqref="G6:G72">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="110" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="108" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="101" priority="105" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="106" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="99" priority="103" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="104" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="97" priority="101" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="95" priority="99" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="100" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="93" priority="97" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="98" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="91" priority="95" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="96" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="94" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="87" priority="91" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="92" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="85" priority="89" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="90" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="83" priority="87" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="88" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="86" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="77" priority="81" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="82" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65:G66">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
